--- a/笔记/二阶段/Day30--SQL注入/Sqlmap-tamper绕过waf分类总结.xlsx
+++ b/笔记/二阶段/Day30--SQL注入/Sqlmap-tamper绕过waf分类总结.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Anyone\Desktop\逼急\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HE\tools\secNote\笔记\二阶段\Day30--SQL注入\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2549FE0-CDE5-4E27-8671-366BFA249201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +495,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,14 +575,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,22 +863,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="52.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,110 +897,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4">
+    <row r="10" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1007,10 +1010,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+    <row r="11" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1018,12 +1021,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1033,10 +1036,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1044,428 +1047,428 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6">
         <v>3</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6">
         <v>5</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6">
         <v>6</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+    <row r="31" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6">
         <v>7</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6">
         <v>8</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+    <row r="35" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6">
         <v>9</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6">
         <v>10</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+    <row r="39" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6">
         <v>11</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="6">
         <v>1</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6">
         <v>2</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6">
         <v>3</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6">
         <v>4</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -1475,10 +1478,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+    <row r="51" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="1" t="s">
         <v>95</v>
       </c>
@@ -1486,156 +1489,156 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6">
         <v>5</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6">
         <v>6</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6">
         <v>7</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6">
         <v>8</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6">
         <v>9</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6">
         <v>10</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="6" t="s">
         <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4">
+    <row r="64" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6">
         <v>11</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -1645,10 +1648,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="1" t="s">
         <v>113</v>
       </c>
@@ -1656,206 +1659,206 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6">
         <v>12</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+    <row r="67" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6">
         <v>13</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+    <row r="69" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6">
         <v>14</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4">
+    <row r="72" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6">
         <v>15</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+    <row r="73" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6">
         <v>16</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6">
         <v>17</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+    <row r="77" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4">
+    <row r="78" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6">
         <v>18</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+    <row r="79" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:5" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="6">
         <v>19</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="6" t="s">
         <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+    <row r="81" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
       <c r="E81" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4">
+    <row r="82" spans="1:5" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6">
         <v>20</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -1865,10 +1868,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+    <row r="83" spans="1:5" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
       <c r="D83" s="1" t="s">
         <v>130</v>
       </c>
@@ -1876,484 +1879,484 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="6">
         <v>21</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="6" t="s">
         <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+    <row r="85" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
       <c r="E85" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="6">
         <v>1</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
       <c r="E87" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6">
         <v>2</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
       <c r="E90" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6">
         <v>3</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
       <c r="E92" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6">
         <v>4</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+    <row r="94" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6">
         <v>5</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6">
         <v>6</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+    <row r="98" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6">
         <v>7</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="6">
         <v>1</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
       <c r="E102" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6">
         <v>2</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
       <c r="E105" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6">
         <v>3</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6">
         <v>4</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+    <row r="109" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6">
         <v>5</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+    <row r="111" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
       <c r="E111" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6">
         <v>6</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6">
         <v>7</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+    <row r="115" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6">
         <v>8</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
       <c r="E117" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="4" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="6">
         <v>1</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
       <c r="E119" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" s="4" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4" t="s">
+      <c r="B120" s="6"/>
+      <c r="C120" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
+    <row r="121" spans="1:5" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
       <c r="E121" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
       <c r="E123" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A124" s="4"/>
+    <row r="124" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
         <v>152</v>
@@ -2367,51 +2370,122 @@
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A101:A117"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A18:A41"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A42:A79"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
     <mergeCell ref="D88:D90"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="C91:C92"/>
@@ -2429,122 +2503,51 @@
     <mergeCell ref="D86:D87"/>
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A42:A79"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A18:A41"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A101:A117"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
